--- a/Output/Concentration_controlonlymods_edit.xlsx
+++ b/Output/Concentration_controlonlymods_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyssa\Desktop\Repositories\TidePoolMicrobes\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE87DC02-919E-46BA-8094-C1C15A1A1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6512935-7D7A-4963-BC70-6C9AAA33AA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="4425" windowWidth="17760" windowHeight="15825" xr2:uid="{EB6B62AA-23A8-49F5-A50F-252D96B18D43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="27495" xr2:uid="{EB6B62AA-23A8-49F5-A50F-252D96B18D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_controlonlymods" sheetId="1" r:id="rId1"/>
@@ -28,21 +28,9 @@
     <t>(Intercept)</t>
   </si>
   <si>
-    <t>foundation_sppPhyllospadix</t>
-  </si>
-  <si>
-    <t>before_afterBefore</t>
-  </si>
-  <si>
-    <t>foundation_sppPhyllospadix:before_afterBefore</t>
-  </si>
-  <si>
     <t>Heterotrophic Bacteria</t>
   </si>
   <si>
-    <t>HIX</t>
-  </si>
-  <si>
     <t>M:C</t>
   </si>
   <si>
@@ -61,9 +49,6 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -71,6 +56,21 @@
   </si>
   <si>
     <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Foundation Species:Month</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>Foundation Species</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -516,7 +516,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -534,13 +534,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -549,7 +549,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -561,54 +561,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -621,25 +589,87 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -689,30 +719,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,488 +1136,452 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C23" sqref="C23:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-0.32185536699916401</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-1.1382502528234399</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.26117594687524298</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.93348307960473098</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.3343633303998699</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.42055236953907E-2</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-0.43218614294667601</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-1.24796443426676</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.21864470092921701</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.42971376748374801</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.87739598104582806</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.385037334109117</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.56659862600017696</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.7807497467903302</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8.0165919221060703E-3</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.57508130022024</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-5.6453221345197999</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D9" s="2">
+        <v>0.40185513954254798</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.64494730367742</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.107272589062072</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D10" s="2">
+        <v>-0.10547179263025</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.31214499078111702</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.75643899580708196</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.21524887126593</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.6131803814332502</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.21648042413835</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-3.9731402800584301</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.81744263469248502</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-3.0828715353484899</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.18614070820529499</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.49639169502653402</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.62208896532234903</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D15" s="2">
         <v>-0.54434872808410395</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.34658923651872597</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E15" s="2">
         <v>-1.57058751608027</v>
       </c>
-      <c r="G3" s="8">
+      <c r="F15" s="10">
         <v>0.123442760527552</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="G15" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.81076796026640896</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.6541180806178499</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.105221238941043</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.839071919561447</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.9766896409010899</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5.4365140703537901E-2</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.30989935728881</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-2.1891070648171298</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-4.28292218913653E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-1.1752799725875099E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.99067596700014704</v>
+      </c>
+      <c r="G19" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.16318783118812499</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.31664594005534702</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.75300974285928401</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-4.6193918381991203E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.10349999395204799</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.91803647042617098</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.139545143450793</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.22108294972083201</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.82605062029679299</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.81076796026640896</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.490151198857318</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.6541180806178499</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.105221238941043</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.839071919561447</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.42448338990583501</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.9766896409010899</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5.4365140703537901E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-1.2612495952701901</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.60031016700693896</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-2.1009965590931201</v>
-      </c>
-      <c r="G6" s="9">
-        <v>4.14041524278492E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D23" s="19">
         <v>-0.62035956276519899</v>
       </c>
-      <c r="E7" s="7">
-        <v>0.244600873375658</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E23" s="19">
         <v>-2.5362115605059601</v>
       </c>
-      <c r="G7" s="9">
+      <c r="F23" s="20">
         <v>1.4830753071188699E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="G23" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
         <v>1.0003950275607301</v>
       </c>
-      <c r="E8" s="7">
-        <v>0.34591787249615902</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E24" s="2">
         <v>2.8920015619367501</v>
       </c>
-      <c r="G8" s="9">
+      <c r="F24" s="9">
         <v>5.9289166167908599E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>-0.14095856983612801</v>
       </c>
-      <c r="E9" s="7">
-        <v>0.29957366520473999</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E25" s="2">
         <v>-0.47053057797918002</v>
       </c>
-      <c r="G9" s="8">
+      <c r="F25" s="10">
         <v>0.64030021487101496</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.64240328662675195</v>
       </c>
-      <c r="E10" s="7">
-        <v>0.42366114026236101</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E26" s="3">
         <v>1.51631392539077</v>
       </c>
-      <c r="G10" s="8">
+      <c r="F26" s="14">
         <v>0.13659215862625401</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-0.88623424540765605</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.313038179916869</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-2.8310739783977898</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6.9686611809924703E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.59476522149428901</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.44270283957902501</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.34348634867547</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.186002727607567</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.88646593849592303</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.38339190540294299</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2.3121665481284701</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.5509014088829801E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-6.3769730103146998E-3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.54219803232490504</v>
-      </c>
-      <c r="F14" s="7">
-        <v>-1.1761335582445199E-2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.99066919543435605</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>-3.2262080193169902E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.364416141499326</v>
-      </c>
-      <c r="F15" s="7">
-        <v>-8.8530875883909205E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.92985647501020796</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.162104749696206</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.51536224965601896</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.31454525395370703</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.75459368473946498</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-4.58873282540729E-2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.44631680035360999</v>
-      </c>
-      <c r="F17" s="7">
-        <v>-0.102813356382096</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.91857826828665901</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-5.4596227456653497E-2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.631187272175041</v>
-      </c>
-      <c r="F18" s="7">
-        <v>-8.6497668542202297E-2</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.93146324443787498</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.56659862600017696</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.20375750340503301</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2.7807497467903302</v>
-      </c>
-      <c r="G19" s="9">
-        <v>8.0165919221060703E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-1.57508130022024</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.27900645218968001</v>
-      </c>
-      <c r="F20" s="7">
-        <v>-5.6453221345197999</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.40185513954254798</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.24429666448533899</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1.64494730367742</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.107272589062072</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-0.10547179263025</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.33789359350702802</v>
-      </c>
-      <c r="F22" s="7">
-        <v>-0.31214499078111702</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.75643899580708196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.21524887126593</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.21649916601390801</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5.6131803814332502</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-1.21648042413835</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.30617605681933302</v>
-      </c>
-      <c r="F24" s="7">
-        <v>-3.9731402800584301</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7">
-        <v>-0.81744263469248502</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.26515624323608999</v>
-      </c>
-      <c r="F25" s="7">
-        <v>-3.0828715353484899</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11">
-        <v>-0.18614070820529499</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.37498755533237699</v>
-      </c>
-      <c r="F26" s="11">
-        <v>-0.49639169502653402</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.62208896532234903</v>
-      </c>
+      <c r="G26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
